--- a/db/sql/map_access.xlsx
+++ b/db/sql/map_access.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="1380" windowWidth="29680" windowHeight="22360"/>
+    <workbookView xWindow="12340" yWindow="1400" windowWidth="29680" windowHeight="22360"/>
   </bookViews>
   <sheets>
     <sheet name="accesstypes" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="127">
   <si>
     <t>id</t>
   </si>
@@ -400,6 +400,9 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Set up in RW</t>
   </si>
 </sst>
 </file>
@@ -409,6 +412,13 @@
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -543,13 +553,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="15"/>
+      <sz val="12"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -860,57 +864,56 @@
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1256,10 +1259,10 @@
   <dimension ref="A1:S77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="1"/>
     <col min="2" max="2" width="3.83203125" style="1" bestFit="1" customWidth="1"/>
@@ -1268,8 +1271,7 @@
     <col min="5" max="6" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="19" width="8.83203125" style="4"/>
-    <col min="20" max="16384" width="8.83203125" style="1"/>
+    <col min="9" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -1294,6 +1296,9 @@
       <c r="H1" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="I1" s="2" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="2" spans="1:19">
       <c r="B2" s="1">
@@ -1317,7 +1322,7 @@
       <c r="H2" s="1">
         <v>1</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="1" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1343,7 +1348,7 @@
       <c r="H3" s="1">
         <v>4</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="1" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1369,7 +1374,7 @@
       <c r="H4" s="1">
         <v>5</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="1" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1395,11 +1400,11 @@
       <c r="H5" s="1">
         <v>2</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="5" customFormat="1" ht="19">
+    <row r="6" spans="1:19" s="3" customFormat="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1">
         <v>11</v>
@@ -1425,121 +1430,121 @@
       <c r="I6" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-    </row>
-    <row r="7" spans="1:19" ht="19">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6">
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4">
         <v>12</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="7" customFormat="1" ht="19">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6">
+    <row r="8" spans="1:19" s="5" customFormat="1">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4">
         <v>56</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="4">
         <v>3</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6">
         <v>63</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="19">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6">
+    <row r="10" spans="1:19">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4">
         <v>64</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="4">
         <v>3</v>
       </c>
     </row>
@@ -1569,31 +1574,31 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="19">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6">
+    <row r="12" spans="1:19">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4">
         <v>5</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="5" customFormat="1" ht="19">
+    <row r="13" spans="1:19" s="3" customFormat="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1">
         <v>62</v>
@@ -1619,16 +1624,16 @@
       <c r="I13" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
     </row>
     <row r="14" spans="1:19">
       <c r="B14" s="1">
@@ -1657,26 +1662,26 @@
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6">
         <v>57</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="6">
         <v>3</v>
       </c>
       <c r="I15" s="2" t="s">
@@ -1944,50 +1949,50 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6">
         <v>59</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="19">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6">
+    <row r="27" spans="1:9">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4">
         <v>60</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="4">
         <v>3</v>
       </c>
     </row>
@@ -2017,27 +2022,27 @@
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="19">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6">
+    <row r="29" spans="1:9">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4">
         <v>15</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="4">
         <v>3</v>
       </c>
     </row>
@@ -2523,7 +2528,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:19" s="5" customFormat="1" ht="19">
+    <row r="58" spans="1:19" s="3" customFormat="1">
       <c r="A58" s="1"/>
       <c r="B58" s="1">
         <v>48</v>
@@ -2542,17 +2547,17 @@
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-      <c r="N58" s="4"/>
-      <c r="O58" s="4"/>
-      <c r="P58" s="4"/>
-      <c r="Q58" s="4"/>
-      <c r="R58" s="4"/>
-      <c r="S58" s="4"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
     </row>
     <row r="59" spans="1:19">
       <c r="B59" s="1">
@@ -2605,7 +2610,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:19" s="5" customFormat="1" ht="19">
+    <row r="62" spans="1:19" s="3" customFormat="1">
       <c r="A62" s="1"/>
       <c r="B62" s="1">
         <v>52</v>
@@ -2624,17 +2629,17 @@
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
-      <c r="M62" s="4"/>
-      <c r="N62" s="4"/>
-      <c r="O62" s="4"/>
-      <c r="P62" s="4"/>
-      <c r="Q62" s="4"/>
-      <c r="R62" s="4"/>
-      <c r="S62" s="4"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
     </row>
     <row r="63" spans="1:19">
       <c r="B63" s="1">
@@ -2653,7 +2658,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:19" s="5" customFormat="1" ht="19">
+    <row r="64" spans="1:19" s="3" customFormat="1">
       <c r="A64" s="1"/>
       <c r="B64" s="1">
         <v>55</v>
@@ -2672,17 +2677,17 @@
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
-      <c r="M64" s="4"/>
-      <c r="N64" s="4"/>
-      <c r="O64" s="4"/>
-      <c r="P64" s="4"/>
-      <c r="Q64" s="4"/>
-      <c r="R64" s="4"/>
-      <c r="S64" s="4"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
     </row>
     <row r="65" spans="2:6">
       <c r="B65" s="1">
